--- a/INTLINE/data/578/BOT/Labour Force Survey (New Series ISIC Rev.4)_historical.xlsx
+++ b/INTLINE/data/578/BOT/Labour Force Survey (New Series ISIC Rev.4)_historical.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Labour Force Survey (New Serie" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Labour Force Survey (New Serie" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>2Labour Force</t>
-  </si>
-  <si>
-    <t>3Employment</t>
-  </si>
-  <si>
-    <t>5Agriculture</t>
-  </si>
-  <si>
-    <t>9Manufacturing</t>
-  </si>
-  <si>
-    <t>29Unemployed Persons</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -88,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -385,851 +353,867 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2Labour Force</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>21459</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>22452</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>22771</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>23567</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>24596</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>25215</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>25885</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>26380</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>27141</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>27412</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>28742.1</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>29618.25</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>30342</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>31751.65</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>31233</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>32187</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>32246</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>31814.15</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>32177.95</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>32321.35</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>32779.65</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>32459.73</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>32719.1</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>33223.75</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>33607.78823125</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>34261.6151949</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>34901.7214162751</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>35806.8042184249</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>36131.98181215</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>36429.0042071501</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>36941.9796288</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>37700.386568525</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>38426.7563713749</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>38643.48</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>38921.5</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>39408.99</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>39383.78</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>38576.23</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>38548.23</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>38266.59</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>38099.81</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>38433.59</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>38178.04</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>38544.42</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>38699.63</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>3Employment</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>18138</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>21738.1</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>19021.6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>22523.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>20873.5</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>24831.4</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>22911.6</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>24159.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>24227.5</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>25085.8</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>26413.8</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>27726.5</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>28456.5</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>28650</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>29220.3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>30794</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>30679</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>30164.3</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>30815.1</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>31166</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>31714.3</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>30104.5</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>30663.28</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>31292.6</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>31752.6556282</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>33060.8666657501</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>33841.0228978501</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>34908.0945414749</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>34213.608556825</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>35685.5293368501</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>36249.453577275</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>37016.611976875</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>37706.3212724499</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>38037.3425</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>38464.66</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>38941.1</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>38906.88</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>38077.43</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>38016.17</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>37692.65</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>37458.25</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>37864.55</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>37613.44</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>37680.2</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>37751.3</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>5Agriculture</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>12320.2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16018.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>12350.9</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>15942.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>13404</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>16984.9</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>14464.9</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>15764.4</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>15528.9</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>15681.1</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>16026.6</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>17379.1</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>17737.9</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>19725.6</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>16384</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>17305</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>16269</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>15180</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>14389.1</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>14136.7</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>14314.6</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>13406.89</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>13803.93</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>13830.41</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>13064.8143899</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>14041.8246484751</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>13880.0911894751</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>13910.9968816249</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>13616.970411125</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>14170.5030923001</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>14306.010756425</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>14699.11588655</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>14692.5464426749</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>14546.875</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>14883.1</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>15433.58</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>15406.95</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>12732.72</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>12271.91</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>11746.62</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>11783.27</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>12168.29</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>11820.89</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>11810.47</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>12025.32</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>9Manufacturing</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1604.2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1477.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1951.1</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1788.9</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1915</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>2006.7</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>2189.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>2134.8</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>2264.2</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>2403.6</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>2691.6</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>2610.9</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>2971.5</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>3132.5</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>3658</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>3933</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>4179</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>4190.8</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>4608.2</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>4650.8</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>4644.2</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>4264.35</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>4273.52</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>4650.1</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>4926.93</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>5052.37</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>5298.72</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>5476.14</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>5587.89</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>5504.13</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>5619.23</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>5453.27</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>5373.91</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>5348.79</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>5301.37</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>5394.46</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>5435.25</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>6393.46</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>6453.6</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>6288.51</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>6107.54</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>6258.59</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>6124.72</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>5976.23</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>5920.59</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>29Unemployed Persons</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>190.6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>156.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>198.4</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>204.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>267.1</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>917.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>1146.8</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>1138</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1324.7</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1529.8</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>1702.5</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1280.8</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>1089.1</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>710</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>973</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>913</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>843.8</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>833</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>550</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>497.6</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>495.2</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>1412.83</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>1369.98</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>1193.58</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>1210.1153002</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>822.840970499999</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>754.19724845</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>725.35250095</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>662.97557705</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>551.7312697249999</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>508.475061175</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>521.9800554</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>572.33571145</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>402.18</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>264.34</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>259.09</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>283.52</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>322.68</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>340.56</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>377.46</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>450.67</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>404.28</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>373.4</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>651.1</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>748.27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>